--- a/Haarweg/misc/BADM_Site-General-Info/HW-BADM-Site_General_Info.xlsx
+++ b/Haarweg/misc/BADM_Site-General-Info/HW-BADM-Site_General_Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ESG\DOW_MAQ\MAQ_Archive\zz_HaarwegDuivendaal\FLUXNET\Haarweg\misc\BADM_Site-General-Info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17126D5D-C951-4AC1-A290-3FA3817294D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116F8FB0-CF1B-4705-A74C-12DC1E13CCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Site_General_Info" sheetId="1" r:id="rId1"/>
@@ -2923,6 +2923,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -3424,7 +3425,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <v>20250425</v>
+        <v>20250521</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
